--- a/docss/trend/lithuania/E_ataxy.xlsx
+++ b/docss/trend/lithuania/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,13 +1719,13 @@
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
@@ -1733,13 +1733,13 @@
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="9">
-        <v>5.6426402181386948E-2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
@@ -1747,13 +1747,13 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -1761,13 +1761,13 @@
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
@@ -1775,13 +1775,13 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="9">
-        <v>2.81666349619627E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -1789,13 +1789,13 @@
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="9">
-        <v>4.7805184498429298E-2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
@@ -1803,13 +1803,13 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="9">
-        <v>3.2992411404848099E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
@@ -1817,13 +1817,13 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="9">
-        <v>5.1459856331348419E-2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
@@ -1831,13 +1831,13 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="9">
-        <v>5.6601611897349358E-2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -1845,13 +1845,13 @@
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="9">
-        <v>6.0392607003450394E-2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11">
+        <v>0.06</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
@@ -1859,13 +1859,13 @@
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="9">
-        <v>2.057345025241375E-2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -1873,13 +1873,13 @@
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="9">
-        <v>0.11751806549727917</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
@@ -1887,13 +1887,13 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
